--- a/MAIT_Check/MAIT_Check.xlsx
+++ b/MAIT_Check/MAIT_Check.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simone/Documents/GitHub/SP028_Autoimmunity/MAIT_Check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92671BE4-C20C-D041-BBE8-026DD947EB50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C46FE71-23A8-014C-ADAB-3C1CE76F3621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Melanome_MAIT_check_Pre_Post" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="Melanome_MAIT_check_Pre_Post_Resp_NoResp_Normalized_by_row" localSheetId="0">Melanome_MAIT_check_Pre_Post!$A$18:$E$32</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,9 +38,9 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Melanome_MAIT_check_Pre_Post_Resp_NoResp_NO_Normalized" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/simone/Downloads/Melanome_MAIT_check_Pre_Post_Resp_NoResp_NO_Normalized.csv" thousands="_x0000_">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Melanome_MAIT_check_Pre_Post_Resp_NoResp_NO_Normalized" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/simone/Downloads/Melanome_MAIT_check_Pre_Post_Resp_NoResp_NO_Normalized.csv" thousands="_x0000_">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -49,8 +50,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="Melanome_MAIT_check_Pre_Post_Resp_NoResp_Normalized_by_columns" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/simone/Downloads/Melanome_MAIT_check_Pre_Post_Resp_NoResp_Normalized_by_columns.csv" thousands="_x0000_">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Melanome_MAIT_check_Pre_Post_Resp_NoResp_Normalized_by_columns" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/simone/Downloads/Melanome_MAIT_check_Pre_Post_Resp_NoResp_Normalized_by_columns.csv" thousands="_x0000_">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -60,8 +61,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="Melanome_MAIT_check_Pre_Post_Resp_NoResp_Normalized_by_row" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/simone/Downloads/Melanome_MAIT_check_Pre_Post_Resp_NoResp_Normalized_by_row.csv" thousands="_x0000_">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="Melanome_MAIT_check_Pre_Post_Resp_NoResp_Normalized_by_row" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/simone/Downloads/Melanome_MAIT_check_Pre_Post_Resp_NoResp_Normalized_by_row.csv" thousands="_x0000_">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="43">
   <si>
     <t>desc_0.6</t>
   </si>
@@ -193,11 +194,23 @@
   <si>
     <t>Tumor_Mela_Pre_Responder</t>
   </si>
+  <si>
+    <t>Pre_Responder</t>
+  </si>
+  <si>
+    <t>Post_Non-responder</t>
+  </si>
+  <si>
+    <t>Pre_Non-responder</t>
+  </si>
+  <si>
+    <t>Post_Responder</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -751,15 +764,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Melanome_MAIT_check_Pre_Post_Resp_NoResp_Normalized_by_row" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Melanome_MAIT_check_Pre_Post_Resp_NoResp_NO_Normalized" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Melanome_MAIT_check_Pre_Post_Resp_NoResp_Normalized_by_columns" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Melanome_MAIT_check_Pre_Post_Resp_NoResp_Normalized_by_row" connectionId="3" xr16:uid="{00000000-0016-0000-0000-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Melanome_MAIT_check_Pre_Post_Resp_NoResp_NO_Normalized" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Melanome_MAIT_check_Pre_Post_Resp_NoResp_Normalized_by_columns" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1058,10 +1071,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -1845,27 +1858,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AG52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="23" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1966,1314 +1995,1311 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>43</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>31</v>
-      </c>
-      <c r="E2">
-        <v>27</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>31</v>
-      </c>
-      <c r="H2">
-        <v>23</v>
-      </c>
-      <c r="I2">
-        <v>38</v>
-      </c>
-      <c r="J2">
-        <v>22</v>
-      </c>
-      <c r="K2">
-        <v>37</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>17</v>
-      </c>
-      <c r="N2">
-        <v>25</v>
-      </c>
-      <c r="O2">
-        <v>13</v>
-      </c>
-      <c r="P2">
-        <v>31</v>
-      </c>
-      <c r="Q2">
-        <v>28</v>
-      </c>
-      <c r="R2">
-        <v>66</v>
-      </c>
-      <c r="S2">
-        <v>13</v>
-      </c>
-      <c r="T2">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <v>13</v>
-      </c>
-      <c r="V2">
-        <v>44</v>
-      </c>
-      <c r="W2">
-        <v>10</v>
-      </c>
-      <c r="X2">
-        <v>53</v>
-      </c>
-      <c r="Y2">
-        <v>9</v>
-      </c>
-      <c r="Z2">
-        <v>15</v>
-      </c>
-      <c r="AA2">
-        <v>49</v>
-      </c>
-      <c r="AB2">
-        <v>8</v>
-      </c>
-      <c r="AC2">
-        <v>12</v>
-      </c>
-      <c r="AD2">
-        <v>10</v>
-      </c>
-      <c r="AE2">
-        <v>3</v>
-      </c>
-      <c r="AF2">
-        <v>43</v>
-      </c>
-      <c r="AG2">
-        <v>16</v>
+    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>38</v>
+      </c>
+      <c r="J3">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>37</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>17</v>
+      </c>
+      <c r="N3">
+        <v>25</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>31</v>
+      </c>
+      <c r="Q3">
+        <v>28</v>
+      </c>
+      <c r="R3">
+        <v>66</v>
+      </c>
+      <c r="S3">
+        <v>13</v>
+      </c>
+      <c r="T3">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="U3">
+        <v>13</v>
+      </c>
+      <c r="V3">
+        <v>44</v>
+      </c>
+      <c r="W3">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="X3">
+        <v>53</v>
+      </c>
+      <c r="Y3">
+        <v>9</v>
+      </c>
+      <c r="Z3">
+        <v>15</v>
+      </c>
+      <c r="AA3">
+        <v>49</v>
+      </c>
+      <c r="AB3">
+        <v>8</v>
+      </c>
+      <c r="AC3">
+        <v>12</v>
+      </c>
+      <c r="AD3">
+        <v>10</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3">
+        <v>43</v>
+      </c>
+      <c r="AG3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>5</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>2</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>2</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>1</v>
       </c>
-      <c r="U3">
+      <c r="U4">
         <v>3</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>1</v>
       </c>
-      <c r="X3">
+      <c r="X4">
         <v>1</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <v>4</v>
       </c>
-      <c r="AA3">
+      <c r="AA4">
         <v>4</v>
       </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
         <v>1</v>
       </c>
-      <c r="AD3">
+      <c r="AD4">
         <v>2</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
         <v>4</v>
       </c>
-      <c r="AG3">
+      <c r="AG4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J5" s="2">
         <v>9</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K5" s="2">
         <v>2</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L5" s="2">
         <v>1</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M5" s="2">
         <v>2</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N5" s="2">
         <v>2</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O5" s="2">
         <v>41</v>
       </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
         <v>3</v>
       </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
         <v>1</v>
       </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
         <v>1</v>
       </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
         <v>5</v>
       </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2">
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
         <v>2</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA5" s="2">
         <v>1</v>
       </c>
-      <c r="AB4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2">
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
         <v>1</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD5" s="2">
         <v>5</v>
       </c>
-      <c r="AE4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2">
+      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2">
         <v>2</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG5" s="2">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>189</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>35</v>
-      </c>
-      <c r="E5">
-        <v>116</v>
-      </c>
-      <c r="F5">
-        <v>39</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>58</v>
-      </c>
-      <c r="I5">
-        <v>54</v>
-      </c>
-      <c r="J5">
-        <v>66</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>24</v>
-      </c>
-      <c r="M5">
-        <v>222</v>
-      </c>
-      <c r="N5">
-        <v>230</v>
-      </c>
-      <c r="O5">
-        <v>6</v>
-      </c>
-      <c r="P5">
-        <v>13</v>
-      </c>
-      <c r="Q5">
-        <v>228</v>
-      </c>
-      <c r="R5">
-        <v>8</v>
-      </c>
-      <c r="S5">
-        <v>173</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>118</v>
-      </c>
-      <c r="V5">
-        <v>59</v>
-      </c>
-      <c r="W5">
-        <v>12</v>
-      </c>
-      <c r="X5">
-        <v>62</v>
-      </c>
-      <c r="Y5">
-        <v>120</v>
-      </c>
-      <c r="Z5">
-        <v>90</v>
-      </c>
-      <c r="AA5">
-        <v>18</v>
-      </c>
-      <c r="AB5">
-        <v>23</v>
-      </c>
-      <c r="AC5">
-        <v>15</v>
-      </c>
-      <c r="AD5">
-        <v>239</v>
-      </c>
-      <c r="AE5">
-        <v>42</v>
-      </c>
-      <c r="AF5">
-        <v>106</v>
-      </c>
-      <c r="AG5">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>189</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>116</v>
+      </c>
+      <c r="F6">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>58</v>
+      </c>
+      <c r="I6">
+        <v>54</v>
+      </c>
+      <c r="J6">
+        <v>66</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>222</v>
+      </c>
+      <c r="N6">
+        <v>230</v>
+      </c>
+      <c r="O6">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
+      <c r="P6">
+        <v>13</v>
+      </c>
+      <c r="Q6">
+        <v>228</v>
+      </c>
+      <c r="R6">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>173</v>
+      </c>
+      <c r="T6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <v>3</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AA6">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF6">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>96</v>
-      </c>
-      <c r="I7">
-        <v>47</v>
-      </c>
-      <c r="J7">
-        <v>77</v>
-      </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>4</v>
       </c>
-      <c r="L7">
-        <v>105</v>
-      </c>
-      <c r="M7">
-        <v>20</v>
-      </c>
-      <c r="N7">
-        <v>19</v>
-      </c>
-      <c r="O7">
-        <v>11</v>
-      </c>
-      <c r="P7">
-        <v>6</v>
-      </c>
       <c r="Q7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>284</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>4</v>
       </c>
       <c r="AB7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AG7">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>96</v>
+      </c>
+      <c r="I8">
+        <v>47</v>
+      </c>
+      <c r="J8">
+        <v>77</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>105</v>
+      </c>
+      <c r="M8">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="N8">
+        <v>19</v>
+      </c>
+      <c r="O8">
+        <v>11</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>21</v>
+      </c>
+      <c r="S8">
+        <v>11</v>
+      </c>
+      <c r="T8">
+        <v>48</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>17</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>284</v>
+      </c>
+      <c r="Y8">
         <v>3</v>
       </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>85</v>
-      </c>
-      <c r="N8">
-        <v>48</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="P8">
-        <v>15</v>
-      </c>
-      <c r="Q8">
-        <v>39</v>
-      </c>
-      <c r="R8">
-        <v>15</v>
-      </c>
-      <c r="S8">
-        <v>12</v>
-      </c>
-      <c r="T8">
+      <c r="Z8">
+        <v>38</v>
+      </c>
+      <c r="AA8">
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <v>10</v>
+      </c>
+      <c r="AC8">
+        <v>13</v>
+      </c>
+      <c r="AD8">
+        <v>64</v>
+      </c>
+      <c r="AE8">
         <v>1</v>
       </c>
-      <c r="U8">
-        <v>43</v>
-      </c>
-      <c r="V8">
-        <v>13</v>
-      </c>
-      <c r="W8">
-        <v>23</v>
-      </c>
-      <c r="X8">
-        <v>30</v>
-      </c>
-      <c r="Y8">
-        <v>8</v>
-      </c>
-      <c r="Z8">
-        <v>65</v>
-      </c>
-      <c r="AA8">
-        <v>33</v>
-      </c>
-      <c r="AB8">
-        <v>5</v>
-      </c>
-      <c r="AC8">
-        <v>52</v>
-      </c>
-      <c r="AD8">
-        <v>70</v>
-      </c>
-      <c r="AE8">
-        <v>4</v>
-      </c>
       <c r="AF8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AG8">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>91</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
-      </c>
       <c r="H9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="R9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="S9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="V9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="X9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z9">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="AA9">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="AB9">
         <v>5</v>
       </c>
       <c r="AC9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="AD9">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="AE9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AF9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AG9">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L10">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <v>9</v>
+      </c>
+      <c r="S10">
         <v>10</v>
       </c>
-      <c r="M10">
-        <v>28</v>
-      </c>
-      <c r="N10">
-        <v>11</v>
-      </c>
-      <c r="O10">
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
         <v>9</v>
       </c>
-      <c r="P10">
-        <v>79</v>
-      </c>
-      <c r="Q10">
-        <v>69</v>
-      </c>
-      <c r="R10">
+      <c r="V10">
+        <v>16</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>27</v>
+      </c>
+      <c r="Y10">
+        <v>4</v>
+      </c>
+      <c r="Z10">
+        <v>9</v>
+      </c>
+      <c r="AA10">
+        <v>7</v>
+      </c>
+      <c r="AB10">
+        <v>5</v>
+      </c>
+      <c r="AC10">
+        <v>17</v>
+      </c>
+      <c r="AD10">
+        <v>39</v>
+      </c>
+      <c r="AE10">
         <v>10</v>
       </c>
-      <c r="S10">
-        <v>84</v>
-      </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-      <c r="U10">
-        <v>23</v>
-      </c>
-      <c r="V10">
-        <v>50</v>
-      </c>
-      <c r="W10">
-        <v>12</v>
-      </c>
-      <c r="X10">
-        <v>141</v>
-      </c>
-      <c r="Y10">
-        <v>13</v>
-      </c>
-      <c r="Z10">
-        <v>12</v>
-      </c>
-      <c r="AA10">
-        <v>12</v>
-      </c>
-      <c r="AB10">
-        <v>20</v>
-      </c>
-      <c r="AC10">
-        <v>20</v>
-      </c>
-      <c r="AD10">
-        <v>10</v>
-      </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>3</v>
       </c>
-      <c r="AF10">
-        <v>61</v>
-      </c>
       <c r="AG10">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>67</v>
+      </c>
+      <c r="E11">
+        <v>121</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>57</v>
+      </c>
+      <c r="H11">
+        <v>94</v>
+      </c>
+      <c r="I11">
         <v>20</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>23</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>17</v>
-      </c>
-      <c r="H11">
-        <v>48</v>
-      </c>
-      <c r="I11">
-        <v>29</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>28</v>
+      </c>
+      <c r="N11">
+        <v>11</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>79</v>
+      </c>
+      <c r="Q11">
+        <v>69</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>84</v>
+      </c>
+      <c r="T11">
         <v>2</v>
       </c>
-      <c r="M11">
-        <v>65</v>
-      </c>
-      <c r="N11">
-        <v>88</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>25</v>
-      </c>
-      <c r="Q11">
-        <v>90</v>
-      </c>
-      <c r="R11">
-        <v>5</v>
-      </c>
-      <c r="S11">
-        <v>11</v>
-      </c>
-      <c r="T11">
-        <v>6</v>
-      </c>
       <c r="U11">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="V11">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="W11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X11">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="Y11">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="Z11">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="AA11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AC11">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AD11">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AE11">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="AF11">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="AG11">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="V12">
+        <v>18</v>
+      </c>
+      <c r="W12">
+        <v>9</v>
+      </c>
+      <c r="X12">
+        <v>30</v>
+      </c>
+      <c r="Y12">
+        <v>51</v>
+      </c>
+      <c r="Z12">
+        <v>58</v>
+      </c>
+      <c r="AA12">
+        <v>9</v>
+      </c>
+      <c r="AB12">
         <v>1</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>3</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
       <c r="AC12">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AF12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>23</v>
-      </c>
-      <c r="H13">
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
         <v>2</v>
       </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>7</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>24</v>
-      </c>
-      <c r="N13">
-        <v>16</v>
-      </c>
-      <c r="O13">
-        <v>18</v>
-      </c>
-      <c r="P13">
-        <v>10</v>
-      </c>
-      <c r="Q13">
-        <v>18</v>
-      </c>
-      <c r="R13">
-        <v>10</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
-        <v>8</v>
-      </c>
-      <c r="V13">
-        <v>63</v>
-      </c>
-      <c r="W13">
-        <v>13</v>
-      </c>
-      <c r="X13">
-        <v>34</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>32</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>17</v>
-      </c>
-      <c r="AD13">
-        <v>2</v>
-      </c>
-      <c r="AE13">
-        <v>2</v>
-      </c>
-      <c r="AF13">
-        <v>25</v>
-      </c>
       <c r="AG13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>63</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>24</v>
+      </c>
+      <c r="N14">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>15</v>
-      </c>
-      <c r="C14">
+      <c r="O14">
+        <v>18</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>18</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>8</v>
+      </c>
+      <c r="V14">
+        <v>63</v>
+      </c>
+      <c r="W14">
+        <v>13</v>
+      </c>
+      <c r="X14">
+        <v>34</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>32</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
         <v>17</v>
       </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>24</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>46</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="AD14">
         <v>2</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>6</v>
-      </c>
-      <c r="N14">
-        <v>6</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>20</v>
-      </c>
-      <c r="Q14">
-        <v>21</v>
-      </c>
-      <c r="R14">
-        <v>4</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>17</v>
-      </c>
-      <c r="V14">
-        <v>66</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>13</v>
-      </c>
-      <c r="Y14">
+      <c r="AE14">
         <v>2</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>21</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>13</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>5</v>
-      </c>
       <c r="AF14">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AG14">
         <v>2</v>
@@ -3281,76 +3307,76 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>46</v>
+      </c>
+      <c r="H15">
         <v>1</v>
-      </c>
-      <c r="C15">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>19</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
       </c>
       <c r="I15">
         <v>4</v>
       </c>
       <c r="J15">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15">
+        <v>20</v>
+      </c>
+      <c r="Q15">
+        <v>21</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <v>1</v>
       </c>
-      <c r="Q15">
-        <v>2</v>
-      </c>
-      <c r="R15">
-        <v>59</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
       <c r="U15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Y15">
         <v>2</v>
@@ -3359,2135 +3385,2130 @@
         <v>0</v>
       </c>
       <c r="AA15">
+        <v>21</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>13</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>5</v>
+      </c>
+      <c r="AF15">
+        <v>5</v>
+      </c>
+      <c r="AG15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="AG15">
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>59</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Y19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AA19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AB19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AC19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AE19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF18" s="1" t="s">
+      <c r="AF19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG18" s="1" t="s">
+      <c r="AG19" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>5.6953642384105896</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>1.0596026490066199</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <v>4.1059602649006601</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>3.5761589403973502</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>1.32450331125827</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <v>4.1059602649006601</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <v>3.04635761589403</v>
       </c>
-      <c r="I19">
+      <c r="I21">
         <v>5.0331125827814498</v>
       </c>
-      <c r="J19">
+      <c r="J21">
         <v>2.9139072847682099</v>
       </c>
-      <c r="K19">
+      <c r="K21">
         <v>4.9006622516556204</v>
       </c>
-      <c r="L19">
+      <c r="L21">
         <v>0.52980132450331097</v>
       </c>
-      <c r="M19">
+      <c r="M21">
         <v>2.2516556291390701</v>
       </c>
-      <c r="N19">
+      <c r="N21">
         <v>3.3112582781456901</v>
       </c>
-      <c r="O19">
+      <c r="O21">
         <v>1.7218543046357599</v>
       </c>
-      <c r="P19">
+      <c r="P21">
         <v>4.1059602649006601</v>
       </c>
-      <c r="Q19">
+      <c r="Q21">
         <v>3.7086092715231702</v>
       </c>
-      <c r="R19">
+      <c r="R21">
         <v>8.7417218543046307</v>
       </c>
-      <c r="S19">
+      <c r="S21">
         <v>1.7218543046357599</v>
       </c>
-      <c r="T19">
+      <c r="T21">
         <v>0.39735099337748297</v>
       </c>
-      <c r="U19">
+      <c r="U21">
         <v>1.7218543046357599</v>
       </c>
-      <c r="V19">
+      <c r="V21">
         <v>5.8278145695364199</v>
       </c>
-      <c r="W19">
+      <c r="W21">
         <v>1.32450331125827</v>
       </c>
-      <c r="X19">
+      <c r="X21">
         <v>7.0198675496688701</v>
       </c>
-      <c r="Y19">
+      <c r="Y21">
         <v>1.19205298013245</v>
       </c>
-      <c r="Z19">
+      <c r="Z21">
         <v>1.98675496688741</v>
       </c>
-      <c r="AA19">
+      <c r="AA21">
         <v>6.4900662251655596</v>
       </c>
-      <c r="AB19">
+      <c r="AB21">
         <v>1.0596026490066199</v>
       </c>
-      <c r="AC19">
+      <c r="AC21">
         <v>1.5894039735099299</v>
       </c>
-      <c r="AD19">
+      <c r="AD21">
         <v>1.32450331125827</v>
       </c>
-      <c r="AE19">
+      <c r="AE21">
         <v>0.39735099337748297</v>
       </c>
-      <c r="AF19">
+      <c r="AF21">
         <v>5.6953642384105896</v>
       </c>
-      <c r="AG19">
+      <c r="AG21">
         <v>2.1192052980132399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>16.393442622950801</v>
-      </c>
-      <c r="C20">
-        <v>1.63934426229508</v>
-      </c>
-      <c r="D20">
-        <v>1.63934426229508</v>
-      </c>
-      <c r="E20">
-        <v>6.55737704918032</v>
-      </c>
-      <c r="F20">
-        <v>6.55737704918032</v>
-      </c>
-      <c r="G20">
-        <v>8.1967213114754092</v>
-      </c>
-      <c r="H20">
-        <v>3.27868852459016</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>3.27868852459016</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>8.1967213114754092</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>3.27868852459016</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>3.27868852459016</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>1.63934426229508</v>
-      </c>
-      <c r="U20">
-        <v>4.9180327868852398</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>1.63934426229508</v>
-      </c>
-      <c r="X20">
-        <v>1.63934426229508</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>6.55737704918032</v>
-      </c>
-      <c r="AA20">
-        <v>6.55737704918032</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>1.63934426229508</v>
-      </c>
-      <c r="AD20">
-        <v>3.27868852459016</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>6.55737704918032</v>
-      </c>
-      <c r="AG20">
-        <v>3.27868852459016</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1.9607843137254899</v>
-      </c>
-      <c r="C21" s="2">
-        <v>7.8431372549019596</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.98039215686274495</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1.9607843137254899</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.98039215686274495</v>
-      </c>
-      <c r="J21" s="2">
-        <v>8.8235294117646994</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1.9607843137254899</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.98039215686274495</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1.9607843137254899</v>
-      </c>
-      <c r="N21" s="2">
-        <v>1.9607843137254899</v>
-      </c>
-      <c r="O21" s="2">
-        <v>40.196078431372499</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2">
-        <v>2.9411764705882302</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0.98039215686274495</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2">
-        <v>0.98039215686274495</v>
-      </c>
-      <c r="W21" s="2">
-        <v>0</v>
-      </c>
-      <c r="X21" s="2">
-        <v>4.9019607843137196</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>1.9607843137254899</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>0.98039215686274495</v>
-      </c>
-      <c r="AB21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="2">
-        <v>0.98039215686274495</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>4.9019607843137196</v>
-      </c>
-      <c r="AE21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="2">
-        <v>1.9607843137254899</v>
-      </c>
-      <c r="AG21" s="2">
-        <v>9.8039215686274499</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>7.7237433592153604</v>
+        <v>16.393442622950801</v>
       </c>
       <c r="C22">
-        <v>0.40866366979975399</v>
+        <v>1.63934426229508</v>
       </c>
       <c r="D22">
-        <v>1.43032284429914</v>
+        <v>1.63934426229508</v>
       </c>
       <c r="E22">
-        <v>4.7404985696771504</v>
+        <v>6.55737704918032</v>
       </c>
       <c r="F22">
-        <v>1.5937883122190399</v>
+        <v>6.55737704918032</v>
       </c>
       <c r="G22">
-        <v>0.28606456885982801</v>
+        <v>8.1967213114754092</v>
       </c>
       <c r="H22">
-        <v>2.3702492848385699</v>
+        <v>3.27868852459016</v>
       </c>
       <c r="I22">
-        <v>2.2067838169186702</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>2.6971802206783799</v>
+        <v>3.27868852459016</v>
       </c>
       <c r="K22">
-        <v>0.16346546791990099</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.980792807519411</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>9.0723334695545503</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>9.3992644053943604</v>
+        <v>8.1967213114754092</v>
       </c>
       <c r="O22">
-        <v>0.245198201879852</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.53126277073968098</v>
+        <v>3.27868852459016</v>
       </c>
       <c r="Q22">
-        <v>9.3175316714344092</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>0.32693093583980298</v>
+        <v>3.27868852459016</v>
       </c>
       <c r="S22">
-        <v>7.0698814875357501</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>4.0866366979975401E-2</v>
+        <v>1.63934426229508</v>
       </c>
       <c r="U22">
-        <v>4.8222313036370998</v>
+        <v>4.9180327868852398</v>
       </c>
       <c r="V22">
-        <v>2.4111156518185499</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>0.490396403759705</v>
+        <v>1.63934426229508</v>
       </c>
       <c r="X22">
-        <v>2.5337147527584798</v>
+        <v>1.63934426229508</v>
       </c>
       <c r="Y22">
-        <v>4.9039640375970501</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>3.67797302819779</v>
+        <v>6.55737704918032</v>
       </c>
       <c r="AA22">
-        <v>0.73559460563955803</v>
+        <v>6.55737704918032</v>
       </c>
       <c r="AB22">
-        <v>0.93992644053943597</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.61299550469963204</v>
+        <v>1.63934426229508</v>
       </c>
       <c r="AD22">
-        <v>9.7670617082141398</v>
+        <v>3.27868852459016</v>
       </c>
       <c r="AE22">
-        <v>1.71638741315897</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>4.3318348998773999</v>
+        <v>6.55737704918032</v>
       </c>
       <c r="AG22">
-        <v>2.4519820187985202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>6.3829787234042499</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>10.6382978723404</v>
-      </c>
-      <c r="E23">
-        <v>2.1276595744680802</v>
-      </c>
-      <c r="F23">
-        <v>8.5106382978723403</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>14.8936170212765</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>2.1276595744680802</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>2.1276595744680802</v>
-      </c>
-      <c r="M23">
-        <v>2.1276595744680802</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>8.5106382978723403</v>
-      </c>
-      <c r="Q23">
-        <v>6.3829787234042499</v>
-      </c>
-      <c r="R23">
-        <v>6.3829787234042499</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>2.1276595744680802</v>
-      </c>
-      <c r="V23">
-        <v>2.1276595744680802</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>2.1276595744680802</v>
-      </c>
-      <c r="Y23">
-        <v>2.1276595744680802</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>8.5106382978723403</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>2.1276595744680802</v>
-      </c>
-      <c r="AD23">
-        <v>2.1276595744680802</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>8.5106382978723403</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
+        <v>3.27868852459016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.9607843137254899</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7.8431372549019596</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.9607843137254899</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="J23" s="2">
+        <v>8.8235294117646994</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.9607843137254899</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1.9607843137254899</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1.9607843137254899</v>
+      </c>
+      <c r="O23" s="2">
+        <v>40.196078431372499</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>2.9411764705882302</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
+        <v>4.9019607843137196</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>1.9607843137254899</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0.98039215686274495</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>4.9019607843137196</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>1.9607843137254899</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>9.8039215686274499</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>10.791366906474799</v>
+        <v>7.7237433592153604</v>
       </c>
       <c r="C24">
-        <v>0.17985611510791299</v>
+        <v>0.40866366979975399</v>
       </c>
       <c r="D24">
-        <v>0.71942446043165398</v>
+        <v>1.43032284429914</v>
       </c>
       <c r="E24">
-        <v>8.9928057553956803E-2</v>
+        <v>4.7404985696771504</v>
       </c>
       <c r="F24">
-        <v>0.17985611510791299</v>
+        <v>1.5937883122190399</v>
       </c>
       <c r="G24">
-        <v>8.9928057553956803E-2</v>
+        <v>0.28606456885982801</v>
       </c>
       <c r="H24">
-        <v>8.6330935251798504</v>
+        <v>2.3702492848385699</v>
       </c>
       <c r="I24">
-        <v>4.2266187050359703</v>
+        <v>2.2067838169186702</v>
       </c>
       <c r="J24">
-        <v>6.9244604316546701</v>
+        <v>2.6971802206783799</v>
       </c>
       <c r="K24">
-        <v>0.35971223021582699</v>
+        <v>0.16346546791990099</v>
       </c>
       <c r="L24">
-        <v>9.4424460431654609</v>
+        <v>0.980792807519411</v>
       </c>
       <c r="M24">
-        <v>1.7985611510791299</v>
+        <v>9.0723334695545503</v>
       </c>
       <c r="N24">
-        <v>1.7086330935251799</v>
+        <v>9.3992644053943604</v>
       </c>
       <c r="O24">
-        <v>0.98920863309352502</v>
+        <v>0.245198201879852</v>
       </c>
       <c r="P24">
-        <v>0.53956834532374098</v>
+        <v>0.53126277073968098</v>
       </c>
       <c r="Q24">
-        <v>0.62949640287769704</v>
+        <v>9.3175316714344092</v>
       </c>
       <c r="R24">
-        <v>1.88848920863309</v>
+        <v>0.32693093583980298</v>
       </c>
       <c r="S24">
-        <v>0.98920863309352502</v>
+        <v>7.0698814875357501</v>
       </c>
       <c r="T24">
-        <v>4.3165467625899199</v>
+        <v>4.0866366979975401E-2</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>4.8222313036370998</v>
       </c>
       <c r="V24">
-        <v>1.52877697841726</v>
+        <v>2.4111156518185499</v>
       </c>
       <c r="W24">
-        <v>0.44964028776978399</v>
+        <v>0.490396403759705</v>
       </c>
       <c r="X24">
-        <v>25.539568345323701</v>
+        <v>2.5337147527584798</v>
       </c>
       <c r="Y24">
-        <v>0.26978417266186999</v>
+        <v>4.9039640375970501</v>
       </c>
       <c r="Z24">
-        <v>3.4172661870503598</v>
+        <v>3.67797302819779</v>
       </c>
       <c r="AA24">
-        <v>0.35971223021582699</v>
+        <v>0.73559460563955803</v>
       </c>
       <c r="AB24">
-        <v>0.89928057553956797</v>
+        <v>0.93992644053943597</v>
       </c>
       <c r="AC24">
-        <v>1.16906474820143</v>
+        <v>0.61299550469963204</v>
       </c>
       <c r="AD24">
-        <v>5.75539568345323</v>
+        <v>9.7670617082141398</v>
       </c>
       <c r="AE24">
-        <v>8.9928057553956803E-2</v>
+        <v>1.71638741315897</v>
       </c>
       <c r="AF24">
-        <v>1.7985611510791299</v>
+        <v>4.3318348998773999</v>
       </c>
       <c r="AG24">
-        <v>4.2266187050359703</v>
+        <v>2.4519820187985202</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>6.3829787234042499</v>
       </c>
       <c r="C25">
-        <v>3.6643026004728099</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>5.7919621749408901</v>
+        <v>10.6382978723404</v>
       </c>
       <c r="E25">
-        <v>10.756501182033</v>
+        <v>2.1276595744680802</v>
       </c>
       <c r="F25">
-        <v>2.3640661938534202</v>
+        <v>8.5106382978723403</v>
       </c>
       <c r="G25">
-        <v>0.35460992907801397</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0.59101654846335605</v>
+        <v>14.8936170212765</v>
       </c>
       <c r="I25">
-        <v>0.70921985815602795</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.1276595744680802</v>
       </c>
       <c r="K25">
-        <v>0.35460992907801397</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>2.1276595744680802</v>
       </c>
       <c r="M25">
-        <v>10.047281323877</v>
+        <v>2.1276595744680802</v>
       </c>
       <c r="N25">
-        <v>5.67375886524822</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.23640661938534199</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1.7730496453900699</v>
+        <v>8.5106382978723403</v>
       </c>
       <c r="Q25">
-        <v>4.6099290780141802</v>
+        <v>6.3829787234042499</v>
       </c>
       <c r="R25">
-        <v>1.7730496453900699</v>
+        <v>6.3829787234042499</v>
       </c>
       <c r="S25">
-        <v>1.4184397163120499</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>0.118203309692671</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>5.08274231678487</v>
+        <v>2.1276595744680802</v>
       </c>
       <c r="V25">
-        <v>1.5366430260047199</v>
+        <v>2.1276595744680802</v>
       </c>
       <c r="W25">
-        <v>2.71867612293144</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>3.5460992907801399</v>
+        <v>2.1276595744680802</v>
       </c>
       <c r="Y25">
-        <v>0.94562647754137097</v>
+        <v>2.1276595744680802</v>
       </c>
       <c r="Z25">
-        <v>7.6832151300236404</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>3.9007092198581499</v>
+        <v>8.5106382978723403</v>
       </c>
       <c r="AB25">
-        <v>0.59101654846335605</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>6.1465721040189099</v>
+        <v>2.1276595744680802</v>
       </c>
       <c r="AD25">
-        <v>8.2742316784869896</v>
+        <v>2.1276595744680802</v>
       </c>
       <c r="AE25">
-        <v>0.47281323877068498</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>1.4184397163120499</v>
+        <v>8.5106382978723403</v>
       </c>
       <c r="AG25">
-        <v>1.0638297872340401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>15.306122448979499</v>
+        <v>10.791366906474799</v>
       </c>
       <c r="C26">
-        <v>6.6326530612244898</v>
+        <v>0.17985611510791299</v>
       </c>
       <c r="D26">
-        <v>0.765306122448979</v>
+        <v>0.71942446043165398</v>
       </c>
       <c r="E26">
-        <v>5.6122448979591804</v>
+        <v>8.9928057553956803E-2</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.17985611510791299</v>
       </c>
       <c r="G26">
-        <v>2.2959183673469301</v>
+        <v>8.9928057553956803E-2</v>
       </c>
       <c r="H26">
-        <v>2.2959183673469301</v>
+        <v>8.6330935251798504</v>
       </c>
       <c r="I26">
-        <v>4.0816326530612201</v>
+        <v>4.2266187050359703</v>
       </c>
       <c r="J26">
-        <v>1.53061224489795</v>
+        <v>6.9244604316546701</v>
       </c>
       <c r="K26">
-        <v>1.27551020408163</v>
+        <v>0.35971223021582699</v>
       </c>
       <c r="L26">
-        <v>6.37755102040816</v>
+        <v>9.4424460431654609</v>
       </c>
       <c r="M26">
-        <v>0.765306122448979</v>
+        <v>1.7985611510791299</v>
       </c>
       <c r="N26">
-        <v>1.27551020408163</v>
+        <v>1.7086330935251799</v>
       </c>
       <c r="O26">
-        <v>1.27551020408163</v>
+        <v>0.98920863309352502</v>
       </c>
       <c r="P26">
-        <v>1.27551020408163</v>
+        <v>0.53956834532374098</v>
       </c>
       <c r="Q26">
-        <v>2.2959183673469301</v>
+        <v>0.62949640287769704</v>
       </c>
       <c r="R26">
-        <v>2.2959183673469301</v>
+        <v>1.88848920863309</v>
       </c>
       <c r="S26">
-        <v>2.5510204081632599</v>
+        <v>0.98920863309352502</v>
       </c>
       <c r="T26">
-        <v>0.765306122448979</v>
+        <v>4.3165467625899199</v>
       </c>
       <c r="U26">
-        <v>2.2959183673469301</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>4.0816326530612201</v>
+        <v>1.52877697841726</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>0.44964028776978399</v>
       </c>
       <c r="X26">
-        <v>6.8877551020408099</v>
+        <v>25.539568345323701</v>
       </c>
       <c r="Y26">
-        <v>1.0204081632652999</v>
+        <v>0.26978417266186999</v>
       </c>
       <c r="Z26">
-        <v>2.2959183673469301</v>
+        <v>3.4172661870503598</v>
       </c>
       <c r="AA26">
-        <v>1.78571428571428</v>
+        <v>0.35971223021582699</v>
       </c>
       <c r="AB26">
-        <v>1.27551020408163</v>
+        <v>0.89928057553956797</v>
       </c>
       <c r="AC26">
-        <v>4.33673469387755</v>
+        <v>1.16906474820143</v>
       </c>
       <c r="AD26">
-        <v>9.9489795918367303</v>
+        <v>5.75539568345323</v>
       </c>
       <c r="AE26">
-        <v>2.5510204081632599</v>
+        <v>8.9928057553956803E-2</v>
       </c>
       <c r="AF26">
-        <v>0.765306122448979</v>
+        <v>1.7985611510791299</v>
       </c>
       <c r="AG26">
-        <v>4.0816326530612201</v>
+        <v>4.2266187050359703</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>2.6160337552742599</v>
+        <v>6.3829787234042499</v>
       </c>
       <c r="C27">
-        <v>2.0253164556962</v>
+        <v>3.6643026004728099</v>
       </c>
       <c r="D27">
-        <v>5.6540084388185603</v>
+        <v>5.7919621749408901</v>
       </c>
       <c r="E27">
-        <v>10.210970464135</v>
+        <v>10.756501182033</v>
       </c>
       <c r="F27">
-        <v>0.16877637130801601</v>
+        <v>2.3640661938534202</v>
       </c>
       <c r="G27">
-        <v>4.81012658227848</v>
+        <v>0.35460992907801397</v>
       </c>
       <c r="H27">
-        <v>7.9324894514767896</v>
+        <v>0.59101654846335605</v>
       </c>
       <c r="I27">
-        <v>1.6877637130801599</v>
+        <v>0.70921985815602795</v>
       </c>
       <c r="J27">
-        <v>8.4388185654008394E-2</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>1.1814345991561099</v>
+        <v>0.35460992907801397</v>
       </c>
       <c r="L27">
-        <v>0.84388185654008396</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>2.3628691983122301</v>
+        <v>10.047281323877</v>
       </c>
       <c r="N27">
-        <v>0.92827004219409204</v>
+        <v>5.67375886524822</v>
       </c>
       <c r="O27">
-        <v>0.759493670886075</v>
+        <v>0.23640661938534199</v>
       </c>
       <c r="P27">
-        <v>6.6666666666666599</v>
+        <v>1.7730496453900699</v>
       </c>
       <c r="Q27">
-        <v>5.8227848101265796</v>
+        <v>4.6099290780141802</v>
       </c>
       <c r="R27">
-        <v>0.84388185654008396</v>
+        <v>1.7730496453900699</v>
       </c>
       <c r="S27">
-        <v>7.0886075949366996</v>
+        <v>1.4184397163120499</v>
       </c>
       <c r="T27">
-        <v>0.16877637130801601</v>
+        <v>0.118203309692671</v>
       </c>
       <c r="U27">
-        <v>1.9409282700421899</v>
+        <v>5.08274231678487</v>
       </c>
       <c r="V27">
-        <v>4.2194092827004201</v>
+        <v>1.5366430260047199</v>
       </c>
       <c r="W27">
-        <v>1.0126582278481</v>
+        <v>2.71867612293144</v>
       </c>
       <c r="X27">
-        <v>11.898734177215101</v>
+        <v>3.5460992907801399</v>
       </c>
       <c r="Y27">
-        <v>1.0970464135021001</v>
+        <v>0.94562647754137097</v>
       </c>
       <c r="Z27">
-        <v>1.0126582278481</v>
+        <v>7.6832151300236404</v>
       </c>
       <c r="AA27">
-        <v>1.0126582278481</v>
+        <v>3.9007092198581499</v>
       </c>
       <c r="AB27">
-        <v>1.6877637130801599</v>
+        <v>0.59101654846335605</v>
       </c>
       <c r="AC27">
-        <v>1.6877637130801599</v>
+        <v>6.1465721040189099</v>
       </c>
       <c r="AD27">
-        <v>0.84388185654008396</v>
+        <v>8.2742316784869896</v>
       </c>
       <c r="AE27">
-        <v>0.253164556962025</v>
+        <v>0.47281323877068498</v>
       </c>
       <c r="AF27">
-        <v>5.1476793248945096</v>
+        <v>1.4184397163120499</v>
       </c>
       <c r="AG27">
-        <v>6.3291139240506302</v>
+        <v>1.0638297872340401</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>7.31958762886598</v>
+        <v>15.306122448979499</v>
       </c>
       <c r="C28">
-        <v>2.0618556701030899</v>
+        <v>6.6326530612244898</v>
       </c>
       <c r="D28">
-        <v>1.0309278350515401</v>
+        <v>0.765306122448979</v>
       </c>
       <c r="E28">
-        <v>2.3711340206185501</v>
+        <v>5.6122448979591804</v>
       </c>
       <c r="F28">
-        <v>0.30927835051546299</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>1.75257731958762</v>
+        <v>2.2959183673469301</v>
       </c>
       <c r="H28">
-        <v>4.9484536082474202</v>
+        <v>2.2959183673469301</v>
       </c>
       <c r="I28">
-        <v>2.9896907216494801</v>
+        <v>4.0816326530612201</v>
       </c>
       <c r="J28">
-        <v>0.103092783505154</v>
+        <v>1.53061224489795</v>
       </c>
       <c r="K28">
-        <v>0.82474226804123696</v>
+        <v>1.27551020408163</v>
       </c>
       <c r="L28">
-        <v>0.20618556701030899</v>
+        <v>6.37755102040816</v>
       </c>
       <c r="M28">
-        <v>6.7010309278350499</v>
+        <v>0.765306122448979</v>
       </c>
       <c r="N28">
-        <v>9.0721649484536009</v>
+        <v>1.27551020408163</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1.27551020408163</v>
       </c>
       <c r="P28">
-        <v>2.5773195876288599</v>
+        <v>1.27551020408163</v>
       </c>
       <c r="Q28">
-        <v>9.2783505154639094</v>
+        <v>2.2959183673469301</v>
       </c>
       <c r="R28">
-        <v>0.51546391752577303</v>
+        <v>2.2959183673469301</v>
       </c>
       <c r="S28">
-        <v>1.1340206185567001</v>
+        <v>2.5510204081632599</v>
       </c>
       <c r="T28">
-        <v>0.61855670103092697</v>
+        <v>0.765306122448979</v>
       </c>
       <c r="U28">
-        <v>1.5463917525773101</v>
+        <v>2.2959183673469301</v>
       </c>
       <c r="V28">
-        <v>1.85567010309278</v>
+        <v>4.0816326530612201</v>
       </c>
       <c r="W28">
-        <v>0.92783505154639101</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>3.09278350515463</v>
+        <v>6.8877551020408099</v>
       </c>
       <c r="Y28">
-        <v>5.2577319587628804</v>
+        <v>1.0204081632652999</v>
       </c>
       <c r="Z28">
-        <v>5.9793814432989603</v>
+        <v>2.2959183673469301</v>
       </c>
       <c r="AA28">
-        <v>0.92783505154639101</v>
+        <v>1.78571428571428</v>
       </c>
       <c r="AB28">
-        <v>0.103092783505154</v>
+        <v>1.27551020408163</v>
       </c>
       <c r="AC28">
-        <v>4.1237113402061798</v>
+        <v>4.33673469387755</v>
       </c>
       <c r="AD28">
-        <v>2.9896907216494801</v>
+        <v>9.9489795918367303</v>
       </c>
       <c r="AE28">
-        <v>17.525773195876202</v>
+        <v>2.5510204081632599</v>
       </c>
       <c r="AF28">
-        <v>0.72164948453608202</v>
+        <v>0.765306122448979</v>
       </c>
       <c r="AG28">
-        <v>1.1340206185567001</v>
+        <v>4.0816326530612201</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>65.8536585365853</v>
+        <v>2.6160337552742599</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2.0253164556962</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>5.6540084388185603</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>10.210970464135</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.16877637130801601</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>4.81012658227848</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>7.9324894514767896</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1.6877637130801599</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>8.4388185654008394E-2</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1.1814345991561099</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>0.84388185654008396</v>
       </c>
       <c r="M29">
-        <v>9.7560975609756095</v>
+        <v>2.3628691983122301</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>0.92827004219409204</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.759493670886075</v>
       </c>
       <c r="P29">
-        <v>7.3170731707316996</v>
+        <v>6.6666666666666599</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>5.8227848101265796</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>0.84388185654008396</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>7.0886075949366996</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>0.16877637130801601</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.9409282700421899</v>
       </c>
       <c r="V29">
-        <v>2.4390243902439002</v>
+        <v>4.2194092827004201</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1.0126582278481</v>
       </c>
       <c r="X29">
-        <v>7.3170731707316996</v>
+        <v>11.898734177215101</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1.0970464135021001</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1.0126582278481</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1.0126582278481</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1.6877637130801599</v>
       </c>
       <c r="AC29">
-        <v>2.4390243902439002</v>
+        <v>1.6877637130801599</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>0.84388185654008396</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>0.253164556962025</v>
       </c>
       <c r="AF29">
-        <v>4.8780487804878003</v>
+        <v>5.1476793248945096</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>6.3291139240506302</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>6.4444444444444402</v>
+        <v>7.31958762886598</v>
       </c>
       <c r="C30">
-        <v>2.6666666666666599</v>
+        <v>2.0618556701030899</v>
       </c>
       <c r="D30">
-        <v>3.1111111111111098</v>
+        <v>1.0309278350515401</v>
       </c>
       <c r="E30">
-        <v>14</v>
+        <v>2.3711340206185501</v>
       </c>
       <c r="F30">
-        <v>0.22222222222222199</v>
+        <v>0.30927835051546299</v>
       </c>
       <c r="G30">
-        <v>5.1111111111111098</v>
+        <v>1.75257731958762</v>
       </c>
       <c r="H30">
-        <v>0.44444444444444398</v>
+        <v>4.9484536082474202</v>
       </c>
       <c r="I30">
-        <v>0.44444444444444398</v>
+        <v>2.9896907216494801</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>0.103092783505154</v>
       </c>
       <c r="K30">
-        <v>1.55555555555555</v>
+        <v>0.82474226804123696</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>0.20618556701030899</v>
       </c>
       <c r="M30">
-        <v>5.3333333333333304</v>
+        <v>6.7010309278350499</v>
       </c>
       <c r="N30">
-        <v>3.55555555555555</v>
+        <v>9.0721649484536009</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>2.2222222222222201</v>
+        <v>2.5773195876288599</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>9.2783505154639094</v>
       </c>
       <c r="R30">
-        <v>2.2222222222222201</v>
+        <v>0.51546391752577303</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1.1340206185567001</v>
       </c>
       <c r="T30">
-        <v>0.66666666666666596</v>
+        <v>0.61855670103092697</v>
       </c>
       <c r="U30">
-        <v>1.7777777777777699</v>
+        <v>1.5463917525773101</v>
       </c>
       <c r="V30">
-        <v>14</v>
+        <v>1.85567010309278</v>
       </c>
       <c r="W30">
-        <v>2.88888888888888</v>
+        <v>0.92783505154639101</v>
       </c>
       <c r="X30">
-        <v>7.55555555555555</v>
+        <v>3.09278350515463</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>5.2577319587628804</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>5.9793814432989603</v>
       </c>
       <c r="AA30">
-        <v>7.1111111111111098</v>
+        <v>0.92783505154639101</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>0.103092783505154</v>
       </c>
       <c r="AC30">
-        <v>3.7777777777777701</v>
+        <v>4.1237113402061798</v>
       </c>
       <c r="AD30">
-        <v>0.44444444444444398</v>
+        <v>2.9896907216494801</v>
       </c>
       <c r="AE30">
-        <v>0.44444444444444398</v>
+        <v>17.525773195876202</v>
       </c>
       <c r="AF30">
-        <v>5.55555555555555</v>
+        <v>0.72164948453608202</v>
       </c>
       <c r="AG30">
-        <v>0.44444444444444398</v>
+        <v>1.1340206185567001</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>4.7318611987381702</v>
+        <v>65.8536585365853</v>
       </c>
       <c r="C31">
-        <v>5.3627760252365899</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1.5772870662460501</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>7.5709779179810699</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>14.5110410094637</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.31545741324921101</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1.26182965299684</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0.63091482649842201</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>1.8927444794952599</v>
+        <v>9.7560975609756095</v>
       </c>
       <c r="N31">
-        <v>1.8927444794952599</v>
+        <v>0</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31">
-        <v>6.3091482649842199</v>
+        <v>7.3170731707316996</v>
       </c>
       <c r="Q31">
-        <v>6.6246056782334302</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.26182965299684</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>0.31545741324921101</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>5.3627760252365899</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>20.820189274447898</v>
+        <v>2.4390243902439002</v>
       </c>
       <c r="W31">
-        <v>0.31545741324921101</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>4.1009463722397399</v>
+        <v>7.3170731707316996</v>
       </c>
       <c r="Y31">
-        <v>0.63091482649842201</v>
+        <v>0</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>6.6246056782334302</v>
+        <v>0</v>
       </c>
       <c r="AB31">
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>4.1009463722397399</v>
+        <v>2.4390243902439002</v>
       </c>
       <c r="AD31">
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>1.5772870662460501</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>1.5772870662460501</v>
+        <v>4.8780487804878003</v>
       </c>
       <c r="AG31">
-        <v>0.63091482649842201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>6.4444444444444402</v>
+      </c>
+      <c r="C32">
+        <v>2.6666666666666599</v>
+      </c>
+      <c r="D32">
+        <v>3.1111111111111098</v>
+      </c>
+      <c r="E32">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="G32">
+        <v>5.1111111111111098</v>
+      </c>
+      <c r="H32">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="I32">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1.55555555555555</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>5.3333333333333304</v>
+      </c>
+      <c r="N32">
+        <v>3.55555555555555</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32">
+        <v>2.2222222222222201</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>2.2222222222222201</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="U32">
+        <v>1.7777777777777699</v>
+      </c>
+      <c r="V32">
+        <v>14</v>
+      </c>
+      <c r="W32">
+        <v>2.88888888888888</v>
+      </c>
+      <c r="X32">
+        <v>7.55555555555555</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>7.1111111111111098</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>3.7777777777777701</v>
+      </c>
+      <c r="AD32">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="AE32">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="AF32">
+        <v>5.55555555555555</v>
+      </c>
+      <c r="AG32">
+        <v>0.44444444444444398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>4.7318611987381702</v>
+      </c>
+      <c r="C33">
+        <v>5.3627760252365899</v>
+      </c>
+      <c r="D33">
+        <v>1.5772870662460501</v>
+      </c>
+      <c r="E33">
+        <v>7.5709779179810699</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>14.5110410094637</v>
+      </c>
+      <c r="H33">
+        <v>0.31545741324921101</v>
+      </c>
+      <c r="I33">
+        <v>1.26182965299684</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.63091482649842201</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1.8927444794952599</v>
+      </c>
+      <c r="N33">
+        <v>1.8927444794952599</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>6.3091482649842199</v>
+      </c>
+      <c r="Q33">
+        <v>6.6246056782334302</v>
+      </c>
+      <c r="R33">
+        <v>1.26182965299684</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0.31545741324921101</v>
+      </c>
+      <c r="U33">
+        <v>5.3627760252365899</v>
+      </c>
+      <c r="V33">
+        <v>20.820189274447898</v>
+      </c>
+      <c r="W33">
+        <v>0.31545741324921101</v>
+      </c>
+      <c r="X33">
+        <v>4.1009463722397399</v>
+      </c>
+      <c r="Y33">
+        <v>0.63091482649842201</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>6.6246056782334302</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>4.1009463722397399</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1.5772870662460501</v>
+      </c>
+      <c r="AF33">
+        <v>1.5772870662460501</v>
+      </c>
+      <c r="AG33">
+        <v>0.63091482649842201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>17</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C32">
+      <c r="C34">
         <v>10.6666666666666</v>
       </c>
-      <c r="D32">
+      <c r="D34">
         <v>12.6666666666666</v>
       </c>
-      <c r="E32">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F32">
+      <c r="F34">
         <v>2.6666666666666599</v>
       </c>
-      <c r="G32">
+      <c r="G34">
         <v>0.66666666666666596</v>
       </c>
-      <c r="H32">
+      <c r="H34">
         <v>1.3333333333333299</v>
       </c>
-      <c r="I32">
+      <c r="I34">
         <v>2.6666666666666599</v>
       </c>
-      <c r="J32">
+      <c r="J34">
         <v>7.3333333333333304</v>
       </c>
-      <c r="K32">
+      <c r="K34">
         <v>2</v>
       </c>
-      <c r="L32">
+      <c r="L34">
         <v>4.6666666666666599</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
         <v>1.3333333333333299</v>
       </c>
-      <c r="O32">
+      <c r="O34">
         <v>1.3333333333333299</v>
       </c>
-      <c r="P32">
+      <c r="P34">
         <v>0.66666666666666596</v>
       </c>
-      <c r="Q32">
+      <c r="Q34">
         <v>1.3333333333333299</v>
       </c>
-      <c r="R32">
+      <c r="R34">
         <v>39.3333333333333</v>
       </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
         <v>3.3333333333333299</v>
       </c>
-      <c r="Y32">
+      <c r="Y34">
         <v>1.3333333333333299</v>
       </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
         <v>2</v>
       </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AG32">
+      <c r="AG34">
         <v>0.66666666666666596</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="37" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="O37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="P37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="Q37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="R37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="S37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="T37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U35" s="1" t="s">
+      <c r="U37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V35" s="1" t="s">
+      <c r="V37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="W37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X35" s="1" t="s">
+      <c r="X37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y35" s="1" t="s">
+      <c r="Y37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z35" s="1" t="s">
+      <c r="Z37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA35" s="1" t="s">
+      <c r="AA37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB35" s="1" t="s">
+      <c r="AB37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC35" s="1" t="s">
+      <c r="AC37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD35" s="1" t="s">
+      <c r="AD37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE35" s="1" t="s">
+      <c r="AE37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF35" s="1" t="s">
+      <c r="AF37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG35" s="1" t="s">
+      <c r="AG37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>6.5648854961831997</v>
-      </c>
-      <c r="C36">
-        <v>4.5714285714285703</v>
-      </c>
-      <c r="D36">
-        <v>12.5</v>
-      </c>
-      <c r="E36">
-        <v>5.4435483870967696</v>
-      </c>
-      <c r="F36">
-        <v>11.2359550561797</v>
-      </c>
-      <c r="G36">
-        <v>15.3465346534653</v>
-      </c>
-      <c r="H36">
-        <v>6.6282420749279503</v>
-      </c>
-      <c r="I36">
-        <v>17.194570135746599</v>
-      </c>
-      <c r="J36">
-        <v>11.2244897959183</v>
-      </c>
-      <c r="K36">
-        <v>41.5730337078651</v>
-      </c>
-      <c r="L36">
-        <v>2.23463687150837</v>
-      </c>
-      <c r="M36">
-        <v>3.5639412997903501</v>
-      </c>
-      <c r="N36">
-        <v>5.4704595185995597</v>
-      </c>
-      <c r="O36">
-        <v>12.149532710280299</v>
-      </c>
-      <c r="P36">
-        <v>14.485981308411199</v>
-      </c>
-      <c r="Q36">
-        <v>5.4474708171206201</v>
-      </c>
-      <c r="R36">
-        <v>30.697674418604599</v>
-      </c>
-      <c r="S36">
-        <v>4.1401273885350296</v>
-      </c>
-      <c r="T36">
-        <v>4.2857142857142803</v>
-      </c>
-      <c r="U36">
-        <v>5.2</v>
-      </c>
-      <c r="V36">
-        <v>12.607449856733499</v>
-      </c>
-      <c r="W36">
-        <v>11.6279069767441</v>
-      </c>
-      <c r="X36">
-        <v>7.6923076923076898</v>
-      </c>
-      <c r="Y36">
-        <v>4.2253521126760498</v>
-      </c>
-      <c r="Z36">
-        <v>5.1194539249146702</v>
-      </c>
-      <c r="AA36">
-        <v>25.128205128205099</v>
-      </c>
-      <c r="AB36">
-        <v>11.1111111111111</v>
-      </c>
-      <c r="AC36">
-        <v>5.8252427184466002</v>
-      </c>
-      <c r="AD36">
-        <v>2.1231422505307802</v>
-      </c>
-      <c r="AE36">
-        <v>1.25</v>
-      </c>
-      <c r="AF36">
-        <v>14.5762711864406</v>
-      </c>
-      <c r="AG36">
-        <v>6.3745019920318704</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>3</v>
-      </c>
-      <c r="B37">
-        <v>1.5267175572519001</v>
-      </c>
-      <c r="C37">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="D37">
-        <v>0.40322580645161199</v>
-      </c>
-      <c r="E37">
-        <v>0.80645161290322498</v>
-      </c>
-      <c r="F37">
-        <v>4.4943820224719104</v>
-      </c>
-      <c r="G37">
-        <v>2.4752475247524699</v>
-      </c>
-      <c r="H37">
-        <v>0.57636887608069098</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>1.0204081632652999</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>1.0940919037199099</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0.934579439252336</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0.93023255813953398</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>1.4285714285714199</v>
-      </c>
-      <c r="U37">
-        <v>1.2</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>1.16279069767441</v>
-      </c>
-      <c r="X37">
-        <v>0.145137880986937</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>1.3651877133105801</v>
-      </c>
-      <c r="AA37">
-        <v>2.0512820512820502</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0.485436893203883</v>
-      </c>
-      <c r="AD37">
-        <v>0.42462845010615702</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>1.35593220338983</v>
-      </c>
-      <c r="AG37">
-        <v>0.79681274900398402</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>4</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.30534351145038102</v>
-      </c>
-      <c r="C38" s="2">
-        <v>4.5714285714285703</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.40322580645161199</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0.99009900990098998</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0.45248868778280499</v>
-      </c>
-      <c r="J38" s="2">
-        <v>4.59183673469387</v>
-      </c>
-      <c r="K38" s="2">
-        <v>2.2471910112359499</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0.55865921787709405</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0.41928721174004102</v>
-      </c>
-      <c r="N38" s="2">
-        <v>0.43763676148796499</v>
-      </c>
-      <c r="O38" s="2">
-        <v>38.317757009345698</v>
-      </c>
-      <c r="P38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="2">
-        <v>1.3953488372092999</v>
-      </c>
-      <c r="S38" s="2">
-        <v>0</v>
-      </c>
-      <c r="T38" s="2">
-        <v>1.4285714285714199</v>
-      </c>
-      <c r="U38" s="2">
-        <v>0</v>
-      </c>
-      <c r="V38" s="2">
-        <v>0.28653295128939799</v>
-      </c>
-      <c r="W38" s="2">
-        <v>0</v>
-      </c>
-      <c r="X38" s="2">
-        <v>0.72568940493468703</v>
-      </c>
-      <c r="Y38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="2">
-        <v>0.68259385665529004</v>
-      </c>
-      <c r="AA38" s="2">
-        <v>0.512820512820512</v>
-      </c>
-      <c r="AB38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="2">
-        <v>0.485436893203883</v>
-      </c>
-      <c r="AD38" s="2">
-        <v>1.0615711252653901</v>
-      </c>
-      <c r="AE38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="2">
-        <v>0.677966101694915</v>
-      </c>
-      <c r="AG38" s="2">
-        <v>3.9840637450199199</v>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B39">
-        <v>28.854961832061001</v>
+        <v>6.5648854961831997</v>
       </c>
       <c r="C39">
-        <v>5.71428571428571</v>
+        <v>4.5714285714285703</v>
       </c>
       <c r="D39">
-        <v>14.1129032258064</v>
+        <v>12.5</v>
       </c>
       <c r="E39">
-        <v>23.387096774193498</v>
+        <v>5.4435483870967696</v>
       </c>
       <c r="F39">
-        <v>43.820224719101098</v>
+        <v>11.2359550561797</v>
       </c>
       <c r="G39">
-        <v>3.46534653465346</v>
+        <v>15.3465346534653</v>
       </c>
       <c r="H39">
-        <v>16.714697406340001</v>
+        <v>6.6282420749279503</v>
       </c>
       <c r="I39">
-        <v>24.434389140271399</v>
+        <v>17.194570135746599</v>
       </c>
       <c r="J39">
-        <v>33.673469387755098</v>
+        <v>11.2244897959183</v>
       </c>
       <c r="K39">
-        <v>4.4943820224719104</v>
+        <v>41.5730337078651</v>
       </c>
       <c r="L39">
-        <v>13.407821229050199</v>
+        <v>2.23463687150837</v>
       </c>
       <c r="M39">
-        <v>46.540880503144599</v>
+        <v>3.5639412997903501</v>
       </c>
       <c r="N39">
-        <v>50.328227571115903</v>
+        <v>5.4704595185995597</v>
       </c>
       <c r="O39">
-        <v>5.6074766355140104</v>
+        <v>12.149532710280299</v>
       </c>
       <c r="P39">
-        <v>6.0747663551401798</v>
+        <v>14.485981308411199</v>
       </c>
       <c r="Q39">
-        <v>44.357976653696497</v>
+        <v>5.4474708171206201</v>
       </c>
       <c r="R39">
-        <v>3.7209302325581302</v>
+        <v>30.697674418604599</v>
       </c>
       <c r="S39">
-        <v>55.095541401273799</v>
+        <v>4.1401273885350296</v>
       </c>
       <c r="T39">
-        <v>1.4285714285714199</v>
+        <v>4.2857142857142803</v>
       </c>
       <c r="U39">
-        <v>47.199999999999903</v>
+        <v>5.2</v>
       </c>
       <c r="V39">
-        <v>16.905444126074499</v>
+        <v>12.607449856733499</v>
       </c>
       <c r="W39">
-        <v>13.953488372093</v>
+        <v>11.6279069767441</v>
       </c>
       <c r="X39">
-        <v>8.99854862119013</v>
+        <v>7.6923076923076898</v>
       </c>
       <c r="Y39">
-        <v>56.338028169014002</v>
+        <v>4.2253521126760498</v>
       </c>
       <c r="Z39">
-        <v>30.716723549488002</v>
+        <v>5.1194539249146702</v>
       </c>
       <c r="AA39">
-        <v>9.2307692307692299</v>
+        <v>25.128205128205099</v>
       </c>
       <c r="AB39">
-        <v>31.9444444444444</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="AC39">
-        <v>7.2815533980582501</v>
+        <v>5.8252427184466002</v>
       </c>
       <c r="AD39">
-        <v>50.743099787685701</v>
+        <v>2.1231422505307802</v>
       </c>
       <c r="AE39">
-        <v>17.5</v>
+        <v>1.25</v>
       </c>
       <c r="AF39">
-        <v>35.932203389830498</v>
+        <v>14.5762711864406</v>
       </c>
       <c r="AG39">
-        <v>23.904382470119501</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+        <v>6.3745019920318704</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>0.45801526717557201</v>
+        <v>1.5267175572519001</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="D40">
-        <v>2.0161290322580601</v>
+        <v>0.40322580645161199</v>
       </c>
       <c r="E40">
-        <v>0.20161290322580599</v>
+        <v>0.80645161290322498</v>
       </c>
       <c r="F40">
         <v>4.4943820224719104</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>2.4752475247524699</v>
       </c>
       <c r="H40">
-        <v>2.0172910662824202</v>
+        <v>0.57636887608069098</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.51020408163265296</v>
+        <v>1.0204081632652999</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0.55865921787709405</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0.20964360587002001</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1.0940919037199099</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40">
-        <v>1.86915887850467</v>
+        <v>0.934579439252336</v>
       </c>
       <c r="Q40">
-        <v>0.58365758754863795</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.3953488372092999</v>
+        <v>0.93023255813953398</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1.4285714285714199</v>
       </c>
       <c r="U40">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="V40">
-        <v>0.28653295128939799</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>1.16279069767441</v>
       </c>
       <c r="X40">
         <v>0.145137880986937</v>
       </c>
       <c r="Y40">
-        <v>0.46948356807511699</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1.3651877133105801</v>
       </c>
       <c r="AA40">
         <v>2.0512820512820502</v>
@@ -5499,7 +5520,7 @@
         <v>0.485436893203883</v>
       </c>
       <c r="AD40">
-        <v>0.21231422505307801</v>
+        <v>0.42462845010615702</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -5508,915 +5529,1218 @@
         <v>1.35593220338983</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>0.79681274900398402</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>7</v>
-      </c>
-      <c r="B41">
-        <v>18.320610687022899</v>
-      </c>
-      <c r="C41">
-        <v>1.1428571428571399</v>
-      </c>
-      <c r="D41">
-        <v>3.2258064516128999</v>
-      </c>
-      <c r="E41">
-        <v>0.20161290322580599</v>
-      </c>
-      <c r="F41">
+      <c r="A41" s="2">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.30534351145038102</v>
+      </c>
+      <c r="C41" s="2">
+        <v>4.5714285714285703</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.40322580645161199</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.99009900990098998</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.45248868778280499</v>
+      </c>
+      <c r="J41" s="2">
+        <v>4.59183673469387</v>
+      </c>
+      <c r="K41" s="2">
         <v>2.2471910112359499</v>
       </c>
-      <c r="G41">
-        <v>0.49504950495049499</v>
-      </c>
-      <c r="H41">
-        <v>27.665706051873201</v>
-      </c>
-      <c r="I41">
-        <v>21.266968325791801</v>
-      </c>
-      <c r="J41">
-        <v>39.285714285714199</v>
-      </c>
-      <c r="K41">
-        <v>4.4943820224719104</v>
-      </c>
-      <c r="L41">
-        <v>58.659217877094903</v>
-      </c>
-      <c r="M41">
-        <v>4.1928721174004098</v>
-      </c>
-      <c r="N41">
-        <v>4.1575492341356597</v>
-      </c>
-      <c r="O41">
-        <v>10.2803738317757</v>
-      </c>
-      <c r="P41">
-        <v>2.8037383177569999</v>
-      </c>
-      <c r="Q41">
-        <v>1.3618677042801499</v>
-      </c>
-      <c r="R41">
-        <v>9.7674418604651105</v>
-      </c>
-      <c r="S41">
-        <v>3.5031847133757901</v>
-      </c>
-      <c r="T41">
-        <v>68.571428571428498</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>4.8710601719197699</v>
-      </c>
-      <c r="W41">
-        <v>5.81395348837209</v>
-      </c>
-      <c r="X41">
-        <v>41.219158200290202</v>
-      </c>
-      <c r="Y41">
-        <v>1.40845070422535</v>
-      </c>
-      <c r="Z41">
-        <v>12.969283276450501</v>
-      </c>
-      <c r="AA41">
-        <v>2.0512820512820502</v>
-      </c>
-      <c r="AB41">
-        <v>13.8888888888888</v>
-      </c>
-      <c r="AC41">
-        <v>6.31067961165048</v>
-      </c>
-      <c r="AD41">
-        <v>13.588110403397</v>
-      </c>
-      <c r="AE41">
-        <v>0.41666666666666602</v>
-      </c>
-      <c r="AF41">
-        <v>6.7796610169491496</v>
-      </c>
-      <c r="AG41">
-        <v>18.725099601593602</v>
+      <c r="L41" s="2">
+        <v>0.55865921787709405</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0.41928721174004102</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0.43763676148796499</v>
+      </c>
+      <c r="O41" s="2">
+        <v>38.317757009345698</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
+        <v>1.3953488372092999</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>1.4285714285714199</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0.28653295128939799</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2">
+        <v>0.72568940493468703</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>0.68259385665529004</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0.512820512820512</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>0.485436893203883</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>1.0615711252653901</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>0.677966101694915</v>
+      </c>
+      <c r="AG41" s="2">
+        <v>3.9840637450199199</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>8.2442748091603004</v>
+        <v>28.854961832061001</v>
       </c>
       <c r="C42">
-        <v>17.714285714285701</v>
+        <v>5.71428571428571</v>
       </c>
       <c r="D42">
-        <v>19.758064516129</v>
+        <v>14.1129032258064</v>
       </c>
       <c r="E42">
-        <v>18.346774193548299</v>
+        <v>23.387096774193498</v>
       </c>
       <c r="F42">
-        <v>22.471910112359499</v>
+        <v>43.820224719101098</v>
       </c>
       <c r="G42">
-        <v>1.48514851485148</v>
+        <v>3.46534653465346</v>
       </c>
       <c r="H42">
-        <v>1.44092219020172</v>
+        <v>16.714697406340001</v>
       </c>
       <c r="I42">
-        <v>2.71493212669683</v>
+        <v>24.434389140271399</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>33.673469387755098</v>
       </c>
       <c r="K42">
-        <v>3.3707865168539302</v>
+        <v>4.4943820224719104</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>13.407821229050199</v>
       </c>
       <c r="M42">
-        <v>17.8197064989517</v>
+        <v>46.540880503144599</v>
       </c>
       <c r="N42">
-        <v>10.503282275711101</v>
+        <v>50.328227571115903</v>
       </c>
       <c r="O42">
-        <v>1.86915887850467</v>
+        <v>5.6074766355140104</v>
       </c>
       <c r="P42">
-        <v>7.0093457943925204</v>
+        <v>6.0747663551401798</v>
       </c>
       <c r="Q42">
-        <v>7.5875486381322901</v>
+        <v>44.357976653696497</v>
       </c>
       <c r="R42">
-        <v>6.9767441860465098</v>
+        <v>3.7209302325581302</v>
       </c>
       <c r="S42">
-        <v>3.8216560509554101</v>
+        <v>55.095541401273799</v>
       </c>
       <c r="T42">
         <v>1.4285714285714199</v>
       </c>
       <c r="U42">
-        <v>17.2</v>
+        <v>47.199999999999903</v>
       </c>
       <c r="V42">
-        <v>3.7249283667621702</v>
+        <v>16.905444126074499</v>
       </c>
       <c r="W42">
-        <v>26.744186046511601</v>
+        <v>13.953488372093</v>
       </c>
       <c r="X42">
-        <v>4.3541364296081202</v>
+        <v>8.99854862119013</v>
       </c>
       <c r="Y42">
-        <v>3.7558685446009301</v>
+        <v>56.338028169014002</v>
       </c>
       <c r="Z42">
-        <v>22.1843003412969</v>
+        <v>30.716723549488002</v>
       </c>
       <c r="AA42">
-        <v>16.923076923076898</v>
+        <v>9.2307692307692299</v>
       </c>
       <c r="AB42">
-        <v>6.9444444444444402</v>
+        <v>31.9444444444444</v>
       </c>
       <c r="AC42">
-        <v>25.242718446601899</v>
+        <v>7.2815533980582501</v>
       </c>
       <c r="AD42">
-        <v>14.861995753715499</v>
+        <v>50.743099787685701</v>
       </c>
       <c r="AE42">
-        <v>1.6666666666666601</v>
+        <v>17.5</v>
       </c>
       <c r="AF42">
-        <v>4.0677966101694896</v>
+        <v>35.932203389830498</v>
       </c>
       <c r="AG42">
-        <v>3.5856573705179202</v>
+        <v>23.904382470119501</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>9.1603053435114496</v>
+        <v>0.45801526717557201</v>
       </c>
       <c r="C43">
-        <v>14.857142857142801</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1.2096774193548301</v>
+        <v>2.0161290322580601</v>
       </c>
       <c r="E43">
-        <v>4.4354838709677402</v>
+        <v>0.20161290322580599</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>4.4943820224719104</v>
       </c>
       <c r="G43">
-        <v>4.4554455445544496</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>2.5936599423631099</v>
+        <v>2.0172910662824202</v>
       </c>
       <c r="I43">
-        <v>7.2398190045248798</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>3.0612244897959102</v>
+        <v>0.51020408163265296</v>
       </c>
       <c r="K43">
-        <v>5.61797752808988</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>13.966480446927299</v>
+        <v>0.55865921787709405</v>
       </c>
       <c r="M43">
-        <v>0.62893081761006298</v>
+        <v>0.20964360587002001</v>
       </c>
       <c r="N43">
-        <v>1.0940919037199099</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>4.6728971962616797</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>2.3364485981308398</v>
+        <v>1.86915887850467</v>
       </c>
       <c r="Q43">
-        <v>1.75097276264591</v>
+        <v>0.58365758754863795</v>
       </c>
       <c r="R43">
-        <v>4.1860465116279002</v>
+        <v>1.3953488372092999</v>
       </c>
       <c r="S43">
-        <v>3.1847133757961701</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>4.2857142857142803</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>3.5999999999999899</v>
+        <v>0.4</v>
       </c>
       <c r="V43">
-        <v>4.5845272206303704</v>
+        <v>0.28653295128939799</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43">
-        <v>3.9187227866473102</v>
+        <v>0.145137880986937</v>
       </c>
       <c r="Y43">
-        <v>1.87793427230046</v>
+        <v>0.46948356807511699</v>
       </c>
       <c r="Z43">
-        <v>3.0716723549488001</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>3.5897435897435801</v>
+        <v>2.0512820512820502</v>
       </c>
       <c r="AB43">
-        <v>6.9444444444444402</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>8.2524271844660202</v>
+        <v>0.485436893203883</v>
       </c>
       <c r="AD43">
-        <v>8.2802547770700592</v>
+        <v>0.21231422505307801</v>
       </c>
       <c r="AE43">
-        <v>4.1666666666666599</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>1.0169491525423699</v>
+        <v>1.35593220338983</v>
       </c>
       <c r="AG43">
-        <v>6.3745019920318704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>4.7328244274809101</v>
+        <v>18.320610687022899</v>
       </c>
       <c r="C44">
-        <v>13.714285714285699</v>
+        <v>1.1428571428571399</v>
       </c>
       <c r="D44">
-        <v>27.016129032258</v>
+        <v>3.2258064516128999</v>
       </c>
       <c r="E44">
-        <v>24.395161290322498</v>
+        <v>0.20161290322580599</v>
       </c>
       <c r="F44">
         <v>2.2471910112359499</v>
       </c>
       <c r="G44">
-        <v>28.217821782178198</v>
+        <v>0.49504950495049499</v>
       </c>
       <c r="H44">
-        <v>27.089337175792501</v>
+        <v>27.665706051873201</v>
       </c>
       <c r="I44">
-        <v>9.0497737556560995</v>
+        <v>21.266968325791801</v>
       </c>
       <c r="J44">
-        <v>0.51020408163265296</v>
+        <v>39.285714285714199</v>
       </c>
       <c r="K44">
-        <v>15.730337078651599</v>
+        <v>4.4943820224719104</v>
       </c>
       <c r="L44">
-        <v>5.5865921787709496</v>
+        <v>58.659217877094903</v>
       </c>
       <c r="M44">
-        <v>5.8700209643605801</v>
+        <v>4.1928721174004098</v>
       </c>
       <c r="N44">
-        <v>2.4070021881838</v>
+        <v>4.1575492341356597</v>
       </c>
       <c r="O44">
-        <v>8.4112149532710205</v>
+        <v>10.2803738317757</v>
       </c>
       <c r="P44">
-        <v>36.9158878504672</v>
+        <v>2.8037383177569999</v>
       </c>
       <c r="Q44">
-        <v>13.424124513618599</v>
+        <v>1.3618677042801499</v>
       </c>
       <c r="R44">
-        <v>4.6511627906976702</v>
+        <v>9.7674418604651105</v>
       </c>
       <c r="S44">
-        <v>26.751592356687802</v>
+        <v>3.5031847133757901</v>
       </c>
       <c r="T44">
-        <v>2.8571428571428501</v>
+        <v>68.571428571428498</v>
       </c>
       <c r="U44">
-        <v>9.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>14.3266475644699</v>
+        <v>4.8710601719197699</v>
       </c>
       <c r="W44">
-        <v>13.953488372093</v>
+        <v>5.81395348837209</v>
       </c>
       <c r="X44">
-        <v>20.4644412191582</v>
+        <v>41.219158200290202</v>
       </c>
       <c r="Y44">
-        <v>6.1032863849765198</v>
+        <v>1.40845070422535</v>
       </c>
       <c r="Z44">
-        <v>4.0955631399317403</v>
+        <v>12.969283276450501</v>
       </c>
       <c r="AA44">
-        <v>6.1538461538461497</v>
+        <v>2.0512820512820502</v>
       </c>
       <c r="AB44">
-        <v>27.7777777777777</v>
+        <v>13.8888888888888</v>
       </c>
       <c r="AC44">
-        <v>9.7087378640776691</v>
+        <v>6.31067961165048</v>
       </c>
       <c r="AD44">
-        <v>2.1231422505307802</v>
+        <v>13.588110403397</v>
       </c>
       <c r="AE44">
-        <v>1.25</v>
+        <v>0.41666666666666602</v>
       </c>
       <c r="AF44">
-        <v>20.677966101694899</v>
+        <v>6.7796610169491496</v>
       </c>
       <c r="AG44">
-        <v>29.880478087649401</v>
+        <v>18.725099601593602</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B45">
-        <v>10.839694656488501</v>
+        <v>8.2442748091603004</v>
       </c>
       <c r="C45">
-        <v>11.4285714285714</v>
+        <v>17.714285714285701</v>
       </c>
       <c r="D45">
-        <v>4.0322580645161201</v>
+        <v>19.758064516129</v>
       </c>
       <c r="E45">
-        <v>4.63709677419354</v>
+        <v>18.346774193548299</v>
       </c>
       <c r="F45">
+        <v>22.471910112359499</v>
+      </c>
+      <c r="G45">
+        <v>1.48514851485148</v>
+      </c>
+      <c r="H45">
+        <v>1.44092219020172</v>
+      </c>
+      <c r="I45">
+        <v>2.71493212669683</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
         <v>3.3707865168539302</v>
       </c>
-      <c r="G45">
-        <v>8.4158415841584109</v>
-      </c>
-      <c r="H45">
-        <v>13.8328530259366</v>
-      </c>
-      <c r="I45">
-        <v>13.1221719457013</v>
-      </c>
-      <c r="J45">
-        <v>0.51020408163265296</v>
-      </c>
-      <c r="K45">
-        <v>8.9887640449438209</v>
-      </c>
       <c r="L45">
-        <v>1.1173184357541801</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>13.6268343815513</v>
+        <v>17.8197064989517</v>
       </c>
       <c r="N45">
-        <v>19.2560175054704</v>
+        <v>10.503282275711101</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1.86915887850467</v>
       </c>
       <c r="P45">
-        <v>11.682242990654199</v>
+        <v>7.0093457943925204</v>
       </c>
       <c r="Q45">
-        <v>17.5097276264591</v>
+        <v>7.5875486381322901</v>
       </c>
       <c r="R45">
-        <v>2.3255813953488298</v>
+        <v>6.9767441860465098</v>
       </c>
       <c r="S45">
-        <v>3.5031847133757901</v>
+        <v>3.8216560509554101</v>
       </c>
       <c r="T45">
-        <v>8.5714285714285694</v>
+        <v>1.4285714285714199</v>
       </c>
       <c r="U45">
-        <v>6</v>
+        <v>17.2</v>
       </c>
       <c r="V45">
-        <v>5.1575931232091596</v>
+        <v>3.7249283667621702</v>
       </c>
       <c r="W45">
-        <v>10.465116279069701</v>
+        <v>26.744186046511601</v>
       </c>
       <c r="X45">
         <v>4.3541364296081202</v>
       </c>
       <c r="Y45">
-        <v>23.943661971830899</v>
+        <v>3.7558685446009301</v>
       </c>
       <c r="Z45">
-        <v>19.7952218430034</v>
+        <v>22.1843003412969</v>
       </c>
       <c r="AA45">
-        <v>4.6153846153846096</v>
+        <v>16.923076923076898</v>
       </c>
       <c r="AB45">
-        <v>1.38888888888888</v>
+        <v>6.9444444444444402</v>
       </c>
       <c r="AC45">
-        <v>19.417475728155299</v>
+        <v>25.242718446601899</v>
       </c>
       <c r="AD45">
-        <v>6.1571125265392697</v>
+        <v>14.861995753715499</v>
       </c>
       <c r="AE45">
-        <v>70.8333333333333</v>
+        <v>1.6666666666666601</v>
       </c>
       <c r="AF45">
-        <v>2.3728813559322002</v>
+        <v>4.0677966101694896</v>
       </c>
       <c r="AG45">
-        <v>4.3824701195219102</v>
+        <v>3.5856573705179202</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B46">
-        <v>4.1221374045801502</v>
+        <v>9.1603053435114496</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>14.857142857142801</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1.2096774193548301</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>4.4354838709677402</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>4.4554455445544496</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2.5936599423631099</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>7.2398190045248798</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>3.0612244897959102</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>5.61797752808988</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>13.966480446927299</v>
       </c>
       <c r="M46">
-        <v>0.83857442348008304</v>
+        <v>0.62893081761006298</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>1.0940919037199099</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>4.6728971962616797</v>
       </c>
       <c r="P46">
-        <v>1.4018691588784999</v>
+        <v>2.3364485981308398</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>1.75097276264591</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>4.1860465116279002</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>3.1847133757961701</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>4.2857142857142803</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>3.5999999999999899</v>
       </c>
       <c r="V46">
-        <v>0.28653295128939799</v>
+        <v>4.5845272206303704</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46">
-        <v>0.43541364296081198</v>
+        <v>3.9187227866473102</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>1.87793427230046</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>3.0716723549488001</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>3.5897435897435801</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>6.9444444444444402</v>
       </c>
       <c r="AC46">
-        <v>0.485436893203883</v>
+        <v>8.2524271844660202</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>8.2802547770700592</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>4.1666666666666599</v>
       </c>
       <c r="AF46">
-        <v>0.677966101694915</v>
+        <v>1.0169491525423699</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>6.3745019920318704</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B47">
-        <v>4.4274809160305297</v>
+        <v>4.7328244274809101</v>
       </c>
       <c r="C47">
-        <v>6.8571428571428497</v>
+        <v>13.714285714285699</v>
       </c>
       <c r="D47">
-        <v>5.6451612903225801</v>
+        <v>27.016129032258</v>
       </c>
       <c r="E47">
-        <v>12.701612903225801</v>
+        <v>24.395161290322498</v>
       </c>
       <c r="F47">
-        <v>1.1235955056179701</v>
+        <v>2.2471910112359499</v>
       </c>
       <c r="G47">
-        <v>11.3861386138613</v>
+        <v>28.217821782178198</v>
       </c>
       <c r="H47">
-        <v>0.57636887608069098</v>
+        <v>27.089337175792501</v>
       </c>
       <c r="I47">
-        <v>0.90497737556561098</v>
+        <v>9.0497737556560995</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>0.51020408163265296</v>
       </c>
       <c r="K47">
-        <v>7.8651685393258397</v>
+        <v>15.730337078651599</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>5.5865921787709496</v>
       </c>
       <c r="M47">
-        <v>5.0314465408805003</v>
+        <v>5.8700209643605801</v>
       </c>
       <c r="N47">
-        <v>3.5010940919037199</v>
+        <v>2.4070021881838</v>
       </c>
       <c r="O47">
-        <v>16.822429906541998</v>
+        <v>8.4112149532710205</v>
       </c>
       <c r="P47">
-        <v>4.6728971962616797</v>
+        <v>36.9158878504672</v>
       </c>
       <c r="Q47">
-        <v>3.5019455252918199</v>
+        <v>13.424124513618599</v>
       </c>
       <c r="R47">
         <v>4.6511627906976702</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>26.751592356687802</v>
       </c>
       <c r="T47">
-        <v>4.2857142857142803</v>
+        <v>2.8571428571428501</v>
       </c>
       <c r="U47">
-        <v>3.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="V47">
-        <v>18.051575931232001</v>
+        <v>14.3266475644699</v>
       </c>
       <c r="W47">
-        <v>15.116279069767399</v>
+        <v>13.953488372093</v>
       </c>
       <c r="X47">
-        <v>4.9346879535558701</v>
+        <v>20.4644412191582</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>6.1032863849765198</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>4.0955631399317403</v>
       </c>
       <c r="AA47">
-        <v>16.410256410256402</v>
+        <v>6.1538461538461497</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>27.7777777777777</v>
       </c>
       <c r="AC47">
-        <v>8.2524271844660202</v>
+        <v>9.7087378640776691</v>
       </c>
       <c r="AD47">
-        <v>0.42462845010615702</v>
+        <v>2.1231422505307802</v>
       </c>
       <c r="AE47">
-        <v>0.83333333333333304</v>
+        <v>1.25</v>
       </c>
       <c r="AF47">
-        <v>8.4745762711864394</v>
+        <v>20.677966101694899</v>
       </c>
       <c r="AG47">
-        <v>0.79681274900398402</v>
+        <v>29.880478087649401</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B48">
-        <v>2.2900763358778602</v>
+        <v>10.839694656488501</v>
       </c>
       <c r="C48">
-        <v>9.71428571428571</v>
+        <v>11.4285714285714</v>
       </c>
       <c r="D48">
-        <v>2.0161290322580601</v>
+        <v>4.0322580645161201</v>
       </c>
       <c r="E48">
-        <v>4.8387096774193497</v>
+        <v>4.63709677419354</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>3.3707865168539302</v>
       </c>
       <c r="G48">
-        <v>22.7722772277227</v>
+        <v>8.4158415841584109</v>
       </c>
       <c r="H48">
-        <v>0.28818443804034499</v>
+        <v>13.8328530259366</v>
       </c>
       <c r="I48">
-        <v>1.80995475113122</v>
+        <v>13.1221719457013</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>0.51020408163265296</v>
       </c>
       <c r="K48">
-        <v>2.2471910112359499</v>
+        <v>8.9887640449438209</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1.1173184357541801</v>
       </c>
       <c r="M48">
-        <v>1.25786163522012</v>
+        <v>13.6268343815513</v>
       </c>
       <c r="N48">
-        <v>1.31291028446389</v>
+        <v>19.2560175054704</v>
       </c>
       <c r="O48">
         <v>0</v>
       </c>
       <c r="P48">
-        <v>9.3457943925233593</v>
+        <v>11.682242990654199</v>
       </c>
       <c r="Q48">
-        <v>4.0856031128404604</v>
+        <v>17.5097276264591</v>
       </c>
       <c r="R48">
-        <v>1.86046511627906</v>
+        <v>2.3255813953488298</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>3.5031847133757901</v>
       </c>
       <c r="T48">
-        <v>1.4285714285714199</v>
+        <v>8.5714285714285694</v>
       </c>
       <c r="U48">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="V48">
-        <v>18.911174785100201</v>
+        <v>5.1575931232091596</v>
       </c>
       <c r="W48">
-        <v>1.16279069767441</v>
+        <v>10.465116279069701</v>
       </c>
       <c r="X48">
-        <v>1.88679245283018</v>
+        <v>4.3541364296081202</v>
       </c>
       <c r="Y48">
-        <v>0.93896713615023397</v>
+        <v>23.943661971830899</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>19.7952218430034</v>
       </c>
       <c r="AA48">
-        <v>10.769230769230701</v>
+        <v>4.6153846153846096</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1.38888888888888</v>
       </c>
       <c r="AC48">
-        <v>6.31067961165048</v>
+        <v>19.417475728155299</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>6.1571125265392697</v>
       </c>
       <c r="AE48">
-        <v>2.0833333333333299</v>
+        <v>70.8333333333333</v>
       </c>
       <c r="AF48">
-        <v>1.6949152542372801</v>
+        <v>2.3728813559322002</v>
       </c>
       <c r="AG48">
-        <v>0.79681274900398402</v>
+        <v>4.3824701195219102</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>4.1221374045801502</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0.83857442348008304</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>1.4018691588784999</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0.28653295128939799</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0.43541364296081198</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0.485436893203883</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0.677966101694915</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>4.4274809160305297</v>
+      </c>
+      <c r="C50">
+        <v>6.8571428571428497</v>
+      </c>
+      <c r="D50">
+        <v>5.6451612903225801</v>
+      </c>
+      <c r="E50">
+        <v>12.701612903225801</v>
+      </c>
+      <c r="F50">
+        <v>1.1235955056179701</v>
+      </c>
+      <c r="G50">
+        <v>11.3861386138613</v>
+      </c>
+      <c r="H50">
+        <v>0.57636887608069098</v>
+      </c>
+      <c r="I50">
+        <v>0.90497737556561098</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>7.8651685393258397</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>5.0314465408805003</v>
+      </c>
+      <c r="N50">
+        <v>3.5010940919037199</v>
+      </c>
+      <c r="O50">
+        <v>16.822429906541998</v>
+      </c>
+      <c r="P50">
+        <v>4.6728971962616797</v>
+      </c>
+      <c r="Q50">
+        <v>3.5019455252918199</v>
+      </c>
+      <c r="R50">
+        <v>4.6511627906976702</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>4.2857142857142803</v>
+      </c>
+      <c r="U50">
+        <v>3.2</v>
+      </c>
+      <c r="V50">
+        <v>18.051575931232001</v>
+      </c>
+      <c r="W50">
+        <v>15.116279069767399</v>
+      </c>
+      <c r="X50">
+        <v>4.9346879535558701</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>16.410256410256402</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>8.2524271844660202</v>
+      </c>
+      <c r="AD50">
+        <v>0.42462845010615702</v>
+      </c>
+      <c r="AE50">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="AF50">
+        <v>8.4745762711864394</v>
+      </c>
+      <c r="AG50">
+        <v>0.79681274900398402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <v>2.2900763358778602</v>
+      </c>
+      <c r="C51">
+        <v>9.71428571428571</v>
+      </c>
+      <c r="D51">
+        <v>2.0161290322580601</v>
+      </c>
+      <c r="E51">
+        <v>4.8387096774193497</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>22.7722772277227</v>
+      </c>
+      <c r="H51">
+        <v>0.28818443804034499</v>
+      </c>
+      <c r="I51">
+        <v>1.80995475113122</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>2.2471910112359499</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>1.25786163522012</v>
+      </c>
+      <c r="N51">
+        <v>1.31291028446389</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>9.3457943925233593</v>
+      </c>
+      <c r="Q51">
+        <v>4.0856031128404604</v>
+      </c>
+      <c r="R51">
+        <v>1.86046511627906</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>1.4285714285714199</v>
+      </c>
+      <c r="U51">
+        <v>6.8</v>
+      </c>
+      <c r="V51">
+        <v>18.911174785100201</v>
+      </c>
+      <c r="W51">
+        <v>1.16279069767441</v>
+      </c>
+      <c r="X51">
+        <v>1.88679245283018</v>
+      </c>
+      <c r="Y51">
+        <v>0.93896713615023397</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>10.769230769230701</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>6.31067961165048</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>2.0833333333333299</v>
+      </c>
+      <c r="AF51">
+        <v>1.6949152542372801</v>
+      </c>
+      <c r="AG51">
+        <v>0.79681274900398402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>17</v>
       </c>
-      <c r="B49">
+      <c r="B52">
         <v>0.15267175572519001</v>
       </c>
-      <c r="C49">
+      <c r="C52">
         <v>9.1428571428571406</v>
       </c>
-      <c r="D49">
+      <c r="D52">
         <v>7.6612903225806397</v>
       </c>
-      <c r="E49">
+      <c r="E52">
         <v>0.60483870967741904</v>
       </c>
-      <c r="F49">
+      <c r="F52">
         <v>4.4943820224719104</v>
       </c>
-      <c r="G49">
+      <c r="G52">
         <v>0.49504950495049499</v>
       </c>
-      <c r="H49">
+      <c r="H52">
         <v>0.57636887608069098</v>
       </c>
-      <c r="I49">
+      <c r="I52">
         <v>1.80995475113122</v>
       </c>
-      <c r="J49">
+      <c r="J52">
         <v>5.6122448979591804</v>
       </c>
-      <c r="K49">
+      <c r="K52">
         <v>3.3707865168539302</v>
       </c>
-      <c r="L49">
+      <c r="L52">
         <v>3.91061452513966</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
         <v>0.43763676148796499</v>
       </c>
-      <c r="O49">
+      <c r="O52">
         <v>1.86915887850467</v>
       </c>
-      <c r="P49">
+      <c r="P52">
         <v>0.467289719626168</v>
       </c>
-      <c r="Q49">
+      <c r="Q52">
         <v>0.38910505836575798</v>
       </c>
-      <c r="R49">
+      <c r="R52">
         <v>27.4418604651162</v>
       </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
         <v>0.72568940493468703</v>
       </c>
-      <c r="Y49">
+      <c r="Y52">
         <v>0.93896713615023397</v>
       </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
         <v>0.512820512820512</v>
       </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
         <v>1.4563106796116501</v>
       </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
         <v>0.338983050847457</v>
       </c>
-      <c r="AG49">
+      <c r="AG52">
         <v>0.39840637450199201</v>
       </c>
     </row>
